--- a/Code/Results/Cases/Case_0_192/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_192/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2447540820144525</v>
+        <v>0.4009303330917504</v>
       </c>
       <c r="D2">
-        <v>0.107941175016478</v>
+        <v>0.1745796982821375</v>
       </c>
       <c r="E2">
-        <v>0.0719465497234264</v>
+        <v>0.1699338955890113</v>
       </c>
       <c r="F2">
-        <v>0.7384626336692435</v>
+        <v>1.610503378416844</v>
       </c>
       <c r="G2">
-        <v>0.4744591121875743</v>
+        <v>0.9603159730419293</v>
       </c>
       <c r="H2">
-        <v>0.3798341728886072</v>
+        <v>1.002447699743968</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07366316595865285</v>
+        <v>0.209174229140924</v>
       </c>
       <c r="K2">
-        <v>2.460930315533972</v>
+        <v>1.065926075380929</v>
       </c>
       <c r="L2">
-        <v>0.05123475869662997</v>
+        <v>0.1537840619895121</v>
       </c>
       <c r="M2">
-        <v>0.572339114757817</v>
+        <v>0.416106485863672</v>
       </c>
       <c r="N2">
-        <v>0.9661304912595057</v>
+        <v>1.500206560469479</v>
       </c>
       <c r="O2">
-        <v>1.748651375174404</v>
+        <v>3.971363781301136</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2266664660906201</v>
+        <v>0.3984785810648361</v>
       </c>
       <c r="D3">
-        <v>0.09903214041361252</v>
+        <v>0.1728796381864299</v>
       </c>
       <c r="E3">
-        <v>0.06948983557804489</v>
+        <v>0.170180072062438</v>
       </c>
       <c r="F3">
-        <v>0.714581858431842</v>
+        <v>1.616263491917032</v>
       </c>
       <c r="G3">
-        <v>0.4574629881686292</v>
+        <v>0.9642966084793443</v>
       </c>
       <c r="H3">
-        <v>0.3781423503110659</v>
+        <v>1.008607703329005</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07407128433061061</v>
+        <v>0.2104666141971023</v>
       </c>
       <c r="K3">
-        <v>2.141678318834778</v>
+        <v>0.9695258052293809</v>
       </c>
       <c r="L3">
-        <v>0.05153928294766352</v>
+        <v>0.1544676840858408</v>
       </c>
       <c r="M3">
-        <v>0.5017825338828032</v>
+        <v>0.3965333436124752</v>
       </c>
       <c r="N3">
-        <v>0.9726393283915726</v>
+        <v>1.506027467533798</v>
       </c>
       <c r="O3">
-        <v>1.708680525472857</v>
+        <v>3.992397509057724</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2158273217991962</v>
+        <v>0.3971472061512173</v>
       </c>
       <c r="D4">
-        <v>0.09363327160167501</v>
+        <v>0.171892555591505</v>
       </c>
       <c r="E4">
-        <v>0.06805989026028669</v>
+        <v>0.1703889466852733</v>
       </c>
       <c r="F4">
-        <v>0.7012192114219076</v>
+        <v>1.620581495991757</v>
       </c>
       <c r="G4">
-        <v>0.4480509634385683</v>
+        <v>0.967296138267514</v>
       </c>
       <c r="H4">
-        <v>0.377731139950626</v>
+        <v>1.012796528086938</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07442207372720944</v>
+        <v>0.2113307714535679</v>
       </c>
       <c r="K4">
-        <v>1.945707386792122</v>
+        <v>0.9103731807836368</v>
       </c>
       <c r="L4">
-        <v>0.05176860945899797</v>
+        <v>0.1549223329891518</v>
       </c>
       <c r="M4">
-        <v>0.4585961288331504</v>
+        <v>0.3846158950277072</v>
       </c>
       <c r="N4">
-        <v>0.9775792561797374</v>
+        <v>1.510092423985505</v>
       </c>
       <c r="O4">
-        <v>1.687611445847693</v>
+        <v>4.007330127077736</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.211473977339125</v>
+        <v>0.3966485302715199</v>
       </c>
       <c r="D5">
-        <v>0.09145024331895968</v>
+        <v>0.1715046582659667</v>
       </c>
       <c r="E5">
-        <v>0.06749624485028249</v>
+        <v>0.1704886129963405</v>
       </c>
       <c r="F5">
-        <v>0.6960865498469531</v>
+        <v>1.622537713083645</v>
       </c>
       <c r="G5">
-        <v>0.4444603711691215</v>
+        <v>0.9686581148891662</v>
       </c>
       <c r="H5">
-        <v>0.3777157756437575</v>
+        <v>1.014605827591055</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07458951135622627</v>
+        <v>0.2117007039470842</v>
       </c>
       <c r="K5">
-        <v>1.865842464303228</v>
+        <v>0.886279295336351</v>
       </c>
       <c r="L5">
-        <v>0.05187253897860344</v>
+        <v>0.1551164013750252</v>
       </c>
       <c r="M5">
-        <v>0.4410264184937702</v>
+        <v>0.379785142466865</v>
       </c>
       <c r="N5">
-        <v>0.9798231460152707</v>
+        <v>1.511872636260513</v>
       </c>
       <c r="O5">
-        <v>1.679860690199718</v>
+        <v>4.013922827880435</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.210754859094294</v>
+        <v>0.3965683785194329</v>
       </c>
       <c r="D6">
-        <v>0.09108875836515296</v>
+        <v>0.1714411168964602</v>
       </c>
       <c r="E6">
-        <v>0.06740378474114905</v>
+        <v>0.17050604217944</v>
       </c>
       <c r="F6">
-        <v>0.6952527591580946</v>
+        <v>1.622874419397284</v>
       </c>
       <c r="G6">
-        <v>0.4438785909350855</v>
+        <v>0.9688927037303188</v>
       </c>
       <c r="H6">
-        <v>0.3777222583935327</v>
+        <v>1.014912442805489</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.074618773141232</v>
+        <v>0.211763205541363</v>
       </c>
       <c r="K6">
-        <v>1.852580137567656</v>
+        <v>0.8822792604079552</v>
       </c>
       <c r="L6">
-        <v>0.05189042431832647</v>
+        <v>0.1551491580492073</v>
       </c>
       <c r="M6">
-        <v>0.4381105984860127</v>
+        <v>0.3789845646276646</v>
       </c>
       <c r="N6">
-        <v>0.9802095025888278</v>
+        <v>1.512175718923046</v>
       </c>
       <c r="O6">
-        <v>1.678623032058809</v>
+        <v>4.015048198989689</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2157683575229328</v>
+        <v>0.3971403030537317</v>
       </c>
       <c r="D7">
-        <v>0.09360376259385816</v>
+        <v>0.1718872660839779</v>
       </c>
       <c r="E7">
-        <v>0.06805221239140202</v>
+        <v>0.1703902318699431</v>
       </c>
       <c r="F7">
-        <v>0.7011487426790382</v>
+        <v>1.620607082029338</v>
       </c>
       <c r="G7">
-        <v>0.4480015640689103</v>
+        <v>0.9673139409705769</v>
       </c>
       <c r="H7">
-        <v>0.3777303236760545</v>
+        <v>1.012820514530858</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07442423361150574</v>
+        <v>0.2113356884676421</v>
       </c>
       <c r="K7">
-        <v>1.94463034446531</v>
+        <v>0.910048194053104</v>
       </c>
       <c r="L7">
-        <v>0.05176996888829777</v>
+        <v>0.1549249146264895</v>
       </c>
       <c r="M7">
-        <v>0.4583590661478922</v>
+        <v>0.3845506411718276</v>
       </c>
       <c r="N7">
-        <v>0.9776085916711281</v>
+        <v>1.510115931294969</v>
       </c>
       <c r="O7">
-        <v>1.687503584641874</v>
+        <v>4.007416983363228</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2384600277684115</v>
+        <v>0.4000489196735089</v>
       </c>
       <c r="D8">
-        <v>0.1048539937127302</v>
+        <v>0.1739817801922712</v>
       </c>
       <c r="E8">
-        <v>0.07108277272902441</v>
+        <v>0.1700068171651754</v>
       </c>
       <c r="F8">
-        <v>0.7299499026505032</v>
+        <v>1.61232739341969</v>
       </c>
       <c r="G8">
-        <v>0.4683786673498531</v>
+        <v>0.961573210446673</v>
       </c>
       <c r="H8">
-        <v>0.3791171263635107</v>
+        <v>1.004487339829325</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07378265146677521</v>
+        <v>0.2096051976362965</v>
       </c>
       <c r="K8">
-        <v>2.350830324659057</v>
+        <v>1.032680552541109</v>
       </c>
       <c r="L8">
-        <v>0.05133086380182661</v>
+        <v>0.1540125422344865</v>
       </c>
       <c r="M8">
-        <v>0.5479799341566363</v>
+        <v>0.4093370463137731</v>
       </c>
       <c r="N8">
-        <v>0.9681749527818297</v>
+        <v>1.502111883090066</v>
       </c>
       <c r="O8">
-        <v>1.734124962795192</v>
+        <v>3.97819749065593</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2852369756796378</v>
+        <v>0.4071291033789493</v>
       </c>
       <c r="D9">
-        <v>0.1275244495691368</v>
+        <v>0.1785365826701906</v>
       </c>
       <c r="E9">
-        <v>0.07768043834765592</v>
+        <v>0.1697115572677603</v>
       </c>
       <c r="F9">
-        <v>0.7974232697326968</v>
+        <v>1.602285068398331</v>
       </c>
       <c r="G9">
-        <v>0.5170559540579234</v>
+        <v>0.9547241355235485</v>
       </c>
       <c r="H9">
-        <v>0.3870823842550521</v>
+        <v>0.9913682619111626</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.073353188657034</v>
+        <v>0.2067711757217836</v>
       </c>
       <c r="K9">
-        <v>3.148702512042462</v>
+        <v>1.273390450161855</v>
       </c>
       <c r="L9">
-        <v>0.05081393679102142</v>
+        <v>0.1524994876245795</v>
       </c>
       <c r="M9">
-        <v>0.7250513889123198</v>
+        <v>0.4587248717699737</v>
       </c>
       <c r="N9">
-        <v>0.9574683213361794</v>
+        <v>1.490299839073856</v>
       </c>
       <c r="O9">
-        <v>1.854928098239412</v>
+        <v>3.936904876889116</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3212340994759586</v>
+        <v>0.4131652486892676</v>
       </c>
       <c r="D10">
-        <v>0.1446162684820109</v>
+        <v>0.1821523669209881</v>
       </c>
       <c r="E10">
-        <v>0.08297423997137443</v>
+        <v>0.1697712970873297</v>
       </c>
       <c r="F10">
-        <v>0.85469549225067</v>
+        <v>1.598678189074903</v>
       </c>
       <c r="G10">
-        <v>0.5590093666495761</v>
+        <v>0.9523830824091988</v>
       </c>
       <c r="H10">
-        <v>0.3965236384809714</v>
+        <v>0.9836895480214594</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07359212942814253</v>
+        <v>0.205028848281561</v>
       </c>
       <c r="K10">
-        <v>3.737112411537453</v>
+        <v>1.45030296549885</v>
       </c>
       <c r="L10">
-        <v>0.05065592340073621</v>
+        <v>0.1515550524176454</v>
       </c>
       <c r="M10">
-        <v>0.8563354870670778</v>
+        <v>0.4954690453362716</v>
       </c>
       <c r="N10">
-        <v>0.954805073277015</v>
+        <v>1.483975223169551</v>
       </c>
       <c r="O10">
-        <v>1.964268612618696</v>
+        <v>3.916323648605186</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3380210228727378</v>
+        <v>0.4160914717812716</v>
       </c>
       <c r="D11">
-        <v>0.1525017775841206</v>
+        <v>0.1838550787617237</v>
       </c>
       <c r="E11">
-        <v>0.08549065370658937</v>
+        <v>0.1698582013612793</v>
       </c>
       <c r="F11">
-        <v>0.8826574096075177</v>
+        <v>1.597855302112819</v>
       </c>
       <c r="G11">
-        <v>0.5796460129924981</v>
+        <v>0.9519032142055295</v>
       </c>
       <c r="H11">
-        <v>0.4016905546234</v>
+        <v>0.980620955855187</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07383285187939492</v>
+        <v>0.2043097514864662</v>
       </c>
       <c r="K11">
-        <v>4.005617936185445</v>
+        <v>1.530783641509231</v>
       </c>
       <c r="L11">
-        <v>0.05063501406323212</v>
+        <v>0.1511614771022742</v>
       </c>
       <c r="M11">
-        <v>0.9164102798891562</v>
+        <v>0.5122810717597019</v>
       </c>
       <c r="N11">
-        <v>0.9548305185535924</v>
+        <v>1.481606259518983</v>
       </c>
       <c r="O11">
-        <v>2.01911290586267</v>
+        <v>3.909079161049249</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3444419811453088</v>
+        <v>0.4172253904036154</v>
       </c>
       <c r="D12">
-        <v>0.1555050136275753</v>
+        <v>0.184508105451016</v>
       </c>
       <c r="E12">
-        <v>0.08646010048736485</v>
+        <v>0.1698996671546027</v>
       </c>
       <c r="F12">
-        <v>0.8935411847818528</v>
+        <v>1.597661206403515</v>
       </c>
       <c r="G12">
-        <v>0.5877021103587623</v>
+        <v>0.95180568219007</v>
       </c>
       <c r="H12">
-        <v>0.4037807734799941</v>
+        <v>0.9795199258311129</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07394402799480204</v>
+        <v>0.204047996723844</v>
       </c>
       <c r="K12">
-        <v>4.107443656550572</v>
+        <v>1.561258255345763</v>
       </c>
       <c r="L12">
-        <v>0.05063467613458172</v>
+        <v>0.151017606144638</v>
       </c>
       <c r="M12">
-        <v>0.9392177871312128</v>
+        <v>0.5186609069903625</v>
       </c>
       <c r="N12">
-        <v>0.9550276096825456</v>
+        <v>1.480782031359198</v>
       </c>
       <c r="O12">
-        <v>2.040671324474374</v>
+        <v>3.90664037814463</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3430561796011773</v>
+        <v>0.4169800341211669</v>
       </c>
       <c r="D13">
-        <v>0.1548574280371042</v>
+        <v>0.1843670988971695</v>
       </c>
       <c r="E13">
-        <v>0.08625056122258101</v>
+        <v>0.1698903566840642</v>
       </c>
       <c r="F13">
-        <v>0.8911836945134866</v>
+        <v>1.59769778351972</v>
       </c>
       <c r="G13">
-        <v>0.5859560428899755</v>
+        <v>0.951822942597957</v>
       </c>
       <c r="H13">
-        <v>0.4033245278896374</v>
+        <v>0.9797543412684746</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07391917665466252</v>
+        <v>0.204103901282533</v>
       </c>
       <c r="K13">
-        <v>4.085506583827964</v>
+        <v>1.554695108138105</v>
       </c>
       <c r="L13">
-        <v>0.05063440763757754</v>
+        <v>0.1510483617729115</v>
       </c>
       <c r="M13">
-        <v>0.9343030518553803</v>
+        <v>0.5172863027156254</v>
       </c>
       <c r="N13">
-        <v>0.9549766662602792</v>
+        <v>1.480956307237449</v>
       </c>
       <c r="O13">
-        <v>2.03599226264609</v>
+        <v>3.907152069197195</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.338547964697284</v>
+        <v>0.41618424309425</v>
       </c>
       <c r="D14">
-        <v>0.1527485038802894</v>
+        <v>0.1839086388174422</v>
       </c>
       <c r="E14">
-        <v>0.08557007349494938</v>
+        <v>0.1698614414634427</v>
       </c>
       <c r="F14">
-        <v>0.8835467842106652</v>
+        <v>1.597836979162622</v>
       </c>
       <c r="G14">
-        <v>0.5803038448894711</v>
+        <v>0.9518935027462589</v>
       </c>
       <c r="H14">
-        <v>0.401859791202142</v>
+        <v>0.9805291516939008</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.0738415910154373</v>
+        <v>0.204288005392808</v>
       </c>
       <c r="K14">
-        <v>4.013992052240667</v>
+        <v>1.533290851272227</v>
       </c>
       <c r="L14">
-        <v>0.0506348328576216</v>
+        <v>0.1511495372844891</v>
       </c>
       <c r="M14">
-        <v>0.9182854487334637</v>
+        <v>0.5128056769506628</v>
       </c>
       <c r="N14">
-        <v>0.9548429193863228</v>
+        <v>1.481536991065568</v>
       </c>
       <c r="O14">
-        <v>2.020870361534179</v>
+        <v>3.908872417453381</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3357950539950991</v>
+        <v>0.4157001574801882</v>
       </c>
       <c r="D15">
-        <v>0.1514590022464546</v>
+        <v>0.183628890501808</v>
       </c>
       <c r="E15">
-        <v>0.08515543841165396</v>
+        <v>0.1698448434903383</v>
       </c>
       <c r="F15">
-        <v>0.8789080399213844</v>
+        <v>1.597937541312803</v>
       </c>
       <c r="G15">
-        <v>0.5768737176165502</v>
+        <v>0.9519476875021411</v>
       </c>
       <c r="H15">
-        <v>0.4009802522660522</v>
+        <v>0.9810116849022847</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07379670657704196</v>
+        <v>0.2044021480975182</v>
       </c>
       <c r="K15">
-        <v>3.970207559127289</v>
+        <v>1.520179848935754</v>
       </c>
       <c r="L15">
-        <v>0.05063608815174447</v>
+        <v>0.151212182664402</v>
       </c>
       <c r="M15">
-        <v>0.9084820603028163</v>
+        <v>0.5100629071593232</v>
       </c>
       <c r="N15">
-        <v>0.9547857027135933</v>
+        <v>1.48190215699239</v>
       </c>
       <c r="O15">
-        <v>2.011712377434492</v>
+        <v>3.909965840848145</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3201457313844855</v>
+        <v>0.4129776326037131</v>
       </c>
       <c r="D16">
-        <v>0.1441032613856379</v>
+        <v>0.1820422488054021</v>
       </c>
       <c r="E16">
-        <v>0.08281204603577663</v>
+        <v>0.1697668168530768</v>
       </c>
       <c r="F16">
-        <v>0.8529082633961309</v>
+        <v>1.598748416436706</v>
       </c>
       <c r="G16">
-        <v>0.5576934768728137</v>
+        <v>0.9524262205775642</v>
       </c>
       <c r="H16">
-        <v>0.3962042065667646</v>
+        <v>0.9838986242849757</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07357914129056908</v>
+        <v>0.2050773204213563</v>
       </c>
       <c r="K16">
-        <v>3.719584125611732</v>
+        <v>1.445043238961148</v>
       </c>
       <c r="L16">
-        <v>0.05065833660090391</v>
+        <v>0.151581497521331</v>
       </c>
       <c r="M16">
-        <v>0.8524172086484683</v>
+        <v>0.4943722515355233</v>
       </c>
       <c r="N16">
-        <v>0.9548291064245831</v>
+        <v>1.484140246380051</v>
       </c>
       <c r="O16">
-        <v>1.960791834893172</v>
+        <v>3.916839711045128</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3106542142444084</v>
+        <v>0.4113535636573715</v>
       </c>
       <c r="D17">
-        <v>0.1396199126339042</v>
+        <v>0.1810836645716449</v>
       </c>
       <c r="E17">
-        <v>0.08140284453197211</v>
+        <v>0.1697342252279768</v>
       </c>
       <c r="F17">
-        <v>0.8374614082697889</v>
+        <v>1.599455275423367</v>
       </c>
       <c r="G17">
-        <v>0.5463371261040066</v>
+        <v>0.9528696751889782</v>
       </c>
       <c r="H17">
-        <v>0.3935032891090771</v>
+        <v>0.9857783464976393</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07348020266518063</v>
+        <v>0.2055103288025926</v>
       </c>
       <c r="K17">
-        <v>3.566068151945274</v>
+        <v>1.398948523282172</v>
       </c>
       <c r="L17">
-        <v>0.05068521363814327</v>
+        <v>0.1518172822023676</v>
       </c>
       <c r="M17">
-        <v>0.8181189666376056</v>
+        <v>0.4847710443498414</v>
       </c>
       <c r="N17">
-        <v>0.955179176075859</v>
+        <v>1.485643227626127</v>
       </c>
       <c r="O17">
-        <v>1.930899893581966</v>
+        <v>3.921599068011915</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3052333783508629</v>
+        <v>0.4104364243280259</v>
       </c>
       <c r="D18">
-        <v>0.1370515136011221</v>
+        <v>0.180537764102553</v>
       </c>
       <c r="E18">
-        <v>0.08060243515500431</v>
+        <v>0.1697211031996595</v>
       </c>
       <c r="F18">
-        <v>0.8287551016997128</v>
+        <v>1.59993883264751</v>
       </c>
       <c r="G18">
-        <v>0.5399501547647674</v>
+        <v>0.9531798069984063</v>
       </c>
       <c r="H18">
-        <v>0.3920313502576533</v>
+        <v>0.986899472018024</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07343565705353328</v>
+        <v>0.2057663026457739</v>
       </c>
       <c r="K18">
-        <v>3.477846577232526</v>
+        <v>1.372436396386206</v>
       </c>
       <c r="L18">
-        <v>0.05070545441828855</v>
+        <v>0.1519562937980083</v>
       </c>
       <c r="M18">
-        <v>0.7984242547605973</v>
+        <v>0.4792578331651143</v>
       </c>
       <c r="N18">
-        <v>0.955496346999027</v>
+        <v>1.486555543789294</v>
       </c>
       <c r="O18">
-        <v>1.914183757432312</v>
+        <v>3.924535883277372</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3034044327063157</v>
+        <v>0.4101288168455994</v>
       </c>
       <c r="D19">
-        <v>0.1361836295343721</v>
+        <v>0.1803538702418734</v>
       </c>
       <c r="E19">
-        <v>0.08033314085783871</v>
+        <v>0.1697176271724636</v>
       </c>
       <c r="F19">
-        <v>0.825837310913812</v>
+        <v>1.600115783053965</v>
       </c>
       <c r="G19">
-        <v>0.5378119847858898</v>
+        <v>0.9532942688664576</v>
       </c>
       <c r="H19">
-        <v>0.3915467428594184</v>
+        <v>0.9872859307648554</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07342266728753799</v>
+        <v>0.2058541598383563</v>
       </c>
       <c r="K19">
-        <v>3.447988619578609</v>
+        <v>1.363459964212154</v>
       </c>
       <c r="L19">
-        <v>0.05071312150495366</v>
+        <v>0.1520039442581389</v>
       </c>
       <c r="M19">
-        <v>0.7917613590067631</v>
+        <v>0.47739273973324</v>
       </c>
       <c r="N19">
-        <v>0.9556233458416159</v>
+        <v>1.486872661985359</v>
       </c>
       <c r="O19">
-        <v>1.908604224448737</v>
+        <v>3.92556447919759</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3116605900720515</v>
+        <v>0.4115246917957336</v>
       </c>
       <c r="D20">
-        <v>0.1400960971597982</v>
+        <v>0.1811851438035177</v>
       </c>
       <c r="E20">
-        <v>0.08155180159046438</v>
+        <v>0.169737112849532</v>
       </c>
       <c r="F20">
-        <v>0.8390871512159492</v>
+        <v>1.599372061553936</v>
       </c>
       <c r="G20">
-        <v>0.5475309035684006</v>
+        <v>0.9528167689555858</v>
       </c>
       <c r="H20">
-        <v>0.3937823076652904</v>
+        <v>0.9855741117028032</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07348944822419057</v>
+        <v>0.2054635183683757</v>
       </c>
       <c r="K20">
-        <v>3.582402046782647</v>
+        <v>1.403855364346896</v>
       </c>
       <c r="L20">
-        <v>0.05068185586791429</v>
+        <v>0.1517918313268627</v>
       </c>
       <c r="M20">
-        <v>0.8217666315088721</v>
+        <v>0.4857921656014312</v>
       </c>
       <c r="N20">
-        <v>0.9551298561700179</v>
+        <v>1.485478282958255</v>
       </c>
       <c r="O20">
-        <v>1.934032188448583</v>
+        <v>3.921071793572338</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3398703558384</v>
+        <v>0.416417286321149</v>
       </c>
       <c r="D21">
-        <v>0.1533674694190665</v>
+        <v>0.1840430764441976</v>
       </c>
       <c r="E21">
-        <v>0.0857694924165493</v>
+        <v>0.1698697025826341</v>
       </c>
       <c r="F21">
-        <v>0.8857817458681723</v>
+        <v>1.597792905533396</v>
       </c>
       <c r="G21">
-        <v>0.5819573278081975</v>
+        <v>0.9518704924162051</v>
       </c>
       <c r="H21">
-        <v>0.4022863252257594</v>
+        <v>0.9802999166264783</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.07386382789070822</v>
+        <v>0.2042336433217997</v>
       </c>
       <c r="K21">
-        <v>4.034993335400202</v>
+        <v>1.539577861644204</v>
       </c>
       <c r="L21">
-        <v>0.05063450016866256</v>
+        <v>0.1511196794749416</v>
       </c>
       <c r="M21">
-        <v>0.9229885552450625</v>
+        <v>0.5141213829419158</v>
       </c>
       <c r="N21">
-        <v>0.9548770371644366</v>
+        <v>1.481364454849597</v>
       </c>
       <c r="O21">
-        <v>2.025290123120556</v>
+        <v>3.908358844313284</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3586832958129378</v>
+        <v>0.4197653344322703</v>
       </c>
       <c r="D22">
-        <v>0.1621417928863735</v>
+        <v>0.1859589335750655</v>
       </c>
       <c r="E22">
-        <v>0.0886228751752931</v>
+        <v>0.1700062198372052</v>
       </c>
       <c r="F22">
-        <v>0.9180306739517761</v>
+        <v>1.597445749306104</v>
       </c>
       <c r="G22">
-        <v>0.6058737047498113</v>
+        <v>0.9517427548083504</v>
       </c>
       <c r="H22">
-        <v>0.4086272479518556</v>
+        <v>0.9772083301960208</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07422572628448876</v>
+        <v>0.2034913437330452</v>
       </c>
       <c r="K22">
-        <v>4.331668358183208</v>
+        <v>1.628269691411106</v>
       </c>
       <c r="L22">
-        <v>0.05064786009016942</v>
+        <v>0.1507105015910675</v>
       </c>
       <c r="M22">
-        <v>0.989487853299778</v>
+        <v>0.5327145603477774</v>
       </c>
       <c r="N22">
-        <v>0.9558093366484997</v>
+        <v>1.479100338716549</v>
       </c>
       <c r="O22">
-        <v>2.089566342512313</v>
+        <v>3.901825321504845</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3486063405374011</v>
+        <v>0.4179646887950526</v>
       </c>
       <c r="D23">
-        <v>0.1574491049466076</v>
+        <v>0.1849320344600329</v>
       </c>
       <c r="E23">
-        <v>0.08709076935744164</v>
+        <v>0.169928806114676</v>
       </c>
       <c r="F23">
-        <v>0.9006531768025638</v>
+        <v>1.597568396423071</v>
       </c>
       <c r="G23">
-        <v>0.5929730883256781</v>
+        <v>0.951766015015437</v>
       </c>
       <c r="H23">
-        <v>0.405168467063433</v>
+        <v>0.9788258690002039</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.07402148914482964</v>
+        <v>0.2038819018467812</v>
       </c>
       <c r="K23">
-        <v>4.173236759087615</v>
+        <v>1.580934828598117</v>
       </c>
       <c r="L23">
-        <v>0.05063658845373453</v>
+        <v>0.1509261378195106</v>
       </c>
       <c r="M23">
-        <v>0.9539616590723341</v>
+        <v>0.5227840071784655</v>
       </c>
       <c r="N23">
-        <v>0.9552079978892039</v>
+        <v>1.480269969680194</v>
       </c>
       <c r="O23">
-        <v>2.054817420512592</v>
+        <v>3.905149968718575</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3112054959096611</v>
+        <v>0.4114472731768331</v>
       </c>
       <c r="D24">
-        <v>0.1398807857702877</v>
+        <v>0.1811392488325794</v>
       </c>
       <c r="E24">
-        <v>0.08148442777886444</v>
+        <v>0.1697357898624716</v>
       </c>
       <c r="F24">
-        <v>0.8383516114903955</v>
+        <v>1.599409442142999</v>
       </c>
       <c r="G24">
-        <v>0.5469907560160294</v>
+        <v>0.9528405159730511</v>
       </c>
       <c r="H24">
-        <v>0.3936559121472953</v>
+        <v>0.9856663202542393</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07348522996201723</v>
+        <v>0.2054846594616677</v>
       </c>
       <c r="K24">
-        <v>3.57501738041492</v>
+        <v>1.401637017670566</v>
       </c>
       <c r="L24">
-        <v>0.05068335901844634</v>
+        <v>0.1518033269020247</v>
       </c>
       <c r="M24">
-        <v>0.8201174486524181</v>
+        <v>0.4853304959329279</v>
       </c>
       <c r="N24">
-        <v>0.9551517933792866</v>
+        <v>1.4855527041844</v>
       </c>
       <c r="O24">
-        <v>1.932614620868378</v>
+        <v>3.921309549493685</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2723145966041045</v>
+        <v>0.4050668646405171</v>
       </c>
       <c r="D25">
-        <v>0.1213198694110247</v>
+        <v>0.1772568371433323</v>
       </c>
       <c r="E25">
-        <v>0.07582077727515824</v>
+        <v>0.1697427248665271</v>
       </c>
       <c r="F25">
-        <v>0.7778935272313348</v>
+        <v>1.604339164816153</v>
       </c>
       <c r="G25">
-        <v>0.5028669003658734</v>
+        <v>0.9561046766976347</v>
       </c>
       <c r="H25">
-        <v>0.3843270083652186</v>
+        <v>0.9945728226670951</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07337574131442892</v>
+        <v>0.2074780874394762</v>
       </c>
       <c r="K25">
-        <v>2.932576521258255</v>
+        <v>1.208255504161656</v>
       </c>
       <c r="L25">
-        <v>0.0509157413191339</v>
+        <v>0.1528793656857186</v>
       </c>
       <c r="M25">
-        <v>0.6769691459485188</v>
+        <v>0.4452822906787119</v>
       </c>
       <c r="N25">
-        <v>0.9594855321106621</v>
+        <v>1.493080985098146</v>
       </c>
       <c r="O25">
-        <v>1.818835781900304</v>
+        <v>3.946362165642228</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_192/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_192/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4009303330917504</v>
+        <v>0.244754082014353</v>
       </c>
       <c r="D2">
-        <v>0.1745796982821375</v>
+        <v>0.107941175016478</v>
       </c>
       <c r="E2">
-        <v>0.1699338955890113</v>
+        <v>0.07194654972341041</v>
       </c>
       <c r="F2">
-        <v>1.610503378416844</v>
+        <v>0.7384626336692364</v>
       </c>
       <c r="G2">
-        <v>0.9603159730419293</v>
+        <v>0.4744591121876027</v>
       </c>
       <c r="H2">
-        <v>1.002447699743968</v>
+        <v>0.3798341728886072</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.209174229140924</v>
+        <v>0.07366316595868838</v>
       </c>
       <c r="K2">
-        <v>1.065926075380929</v>
+        <v>2.46093031553383</v>
       </c>
       <c r="L2">
-        <v>0.1537840619895121</v>
+        <v>0.05123475869663707</v>
       </c>
       <c r="M2">
-        <v>0.416106485863672</v>
+        <v>0.572339114757817</v>
       </c>
       <c r="N2">
-        <v>1.500206560469479</v>
+        <v>0.9661304912595057</v>
       </c>
       <c r="O2">
-        <v>3.971363781301136</v>
+        <v>1.748651375174319</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3984785810648361</v>
+        <v>0.226666466090947</v>
       </c>
       <c r="D3">
-        <v>0.1728796381864299</v>
+        <v>0.09903214041337094</v>
       </c>
       <c r="E3">
-        <v>0.170180072062438</v>
+        <v>0.06948983557804311</v>
       </c>
       <c r="F3">
-        <v>1.616263491917032</v>
+        <v>0.714581858431842</v>
       </c>
       <c r="G3">
-        <v>0.9642966084793443</v>
+        <v>0.457462988168615</v>
       </c>
       <c r="H3">
-        <v>1.008607703329005</v>
+        <v>0.3781423503110659</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2104666141971023</v>
+        <v>0.07407128433062837</v>
       </c>
       <c r="K3">
-        <v>0.9695258052293809</v>
+        <v>2.141678318834806</v>
       </c>
       <c r="L3">
-        <v>0.1544676840858408</v>
+        <v>0.05153928294768129</v>
       </c>
       <c r="M3">
-        <v>0.3965333436124752</v>
+        <v>0.501782533882789</v>
       </c>
       <c r="N3">
-        <v>1.506027467533798</v>
+        <v>0.9726393283915229</v>
       </c>
       <c r="O3">
-        <v>3.992397509057724</v>
+        <v>1.708680525472857</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3971472061512173</v>
+        <v>0.2158273217995372</v>
       </c>
       <c r="D4">
-        <v>0.171892555591505</v>
+        <v>0.09363327160188106</v>
       </c>
       <c r="E4">
-        <v>0.1703889466852733</v>
+        <v>0.06805989026026005</v>
       </c>
       <c r="F4">
-        <v>1.620581495991757</v>
+        <v>0.7012192114219147</v>
       </c>
       <c r="G4">
-        <v>0.967296138267514</v>
+        <v>0.4480509634385186</v>
       </c>
       <c r="H4">
-        <v>1.012796528086938</v>
+        <v>0.3777311399506189</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2113307714535679</v>
+        <v>0.07442207372721654</v>
       </c>
       <c r="K4">
-        <v>0.9103731807836368</v>
+        <v>1.945707386792179</v>
       </c>
       <c r="L4">
-        <v>0.1549223329891518</v>
+        <v>0.05176860945902995</v>
       </c>
       <c r="M4">
-        <v>0.3846158950277072</v>
+        <v>0.4585961288331575</v>
       </c>
       <c r="N4">
-        <v>1.510092423985505</v>
+        <v>0.9775792561798085</v>
       </c>
       <c r="O4">
-        <v>4.007330127077736</v>
+        <v>1.687611445847637</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3966485302715199</v>
+        <v>0.2114739773384713</v>
       </c>
       <c r="D5">
-        <v>0.1715046582659667</v>
+        <v>0.0914502433189881</v>
       </c>
       <c r="E5">
-        <v>0.1704886129963405</v>
+        <v>0.06749624485028427</v>
       </c>
       <c r="F5">
-        <v>1.622537713083645</v>
+        <v>0.6960865498469673</v>
       </c>
       <c r="G5">
-        <v>0.9686581148891662</v>
+        <v>0.4444603711690647</v>
       </c>
       <c r="H5">
-        <v>1.014605827591055</v>
+        <v>0.3777157756437575</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2117007039470842</v>
+        <v>0.07458951135631153</v>
       </c>
       <c r="K5">
-        <v>0.886279295336351</v>
+        <v>1.865842464303199</v>
       </c>
       <c r="L5">
-        <v>0.1551164013750252</v>
+        <v>0.05187253897867983</v>
       </c>
       <c r="M5">
-        <v>0.379785142466865</v>
+        <v>0.4410264184937844</v>
       </c>
       <c r="N5">
-        <v>1.511872636260513</v>
+        <v>0.9798231460153204</v>
       </c>
       <c r="O5">
-        <v>4.013922827880435</v>
+        <v>1.679860690199732</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3965683785194329</v>
+        <v>0.2107548590941377</v>
       </c>
       <c r="D6">
-        <v>0.1714411168964602</v>
+        <v>0.09108875836511032</v>
       </c>
       <c r="E6">
-        <v>0.17050604217944</v>
+        <v>0.06740378474112063</v>
       </c>
       <c r="F6">
-        <v>1.622874419397284</v>
+        <v>0.6952527591581017</v>
       </c>
       <c r="G6">
-        <v>0.9688927037303188</v>
+        <v>0.4438785909350571</v>
       </c>
       <c r="H6">
-        <v>1.014912442805489</v>
+        <v>0.3777222583935327</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.211763205541363</v>
+        <v>0.07461877314133503</v>
       </c>
       <c r="K6">
-        <v>0.8822792604079552</v>
+        <v>1.852580137567543</v>
       </c>
       <c r="L6">
-        <v>0.1551491580492073</v>
+        <v>0.05189042431826429</v>
       </c>
       <c r="M6">
-        <v>0.3789845646276646</v>
+        <v>0.4381105984860127</v>
       </c>
       <c r="N6">
-        <v>1.512175718923046</v>
+        <v>0.9802095025888207</v>
       </c>
       <c r="O6">
-        <v>4.015048198989689</v>
+        <v>1.678623032058795</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3971403030537317</v>
+        <v>0.2157683575231459</v>
       </c>
       <c r="D7">
-        <v>0.1718872660839779</v>
+        <v>0.09360376259389369</v>
       </c>
       <c r="E7">
-        <v>0.1703902318699431</v>
+        <v>0.06805221239138248</v>
       </c>
       <c r="F7">
-        <v>1.620607082029338</v>
+        <v>0.7011487426790382</v>
       </c>
       <c r="G7">
-        <v>0.9673139409705769</v>
+        <v>0.4480015640688464</v>
       </c>
       <c r="H7">
-        <v>1.012820514530858</v>
+        <v>0.3777303236760616</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2113356884676421</v>
+        <v>0.07442423361152706</v>
       </c>
       <c r="K7">
-        <v>0.910048194053104</v>
+        <v>1.94463034446531</v>
       </c>
       <c r="L7">
-        <v>0.1549249146264895</v>
+        <v>0.05176996888823204</v>
       </c>
       <c r="M7">
-        <v>0.3845506411718276</v>
+        <v>0.4583590661478851</v>
       </c>
       <c r="N7">
-        <v>1.510115931294969</v>
+        <v>0.9776085916711068</v>
       </c>
       <c r="O7">
-        <v>4.007416983363228</v>
+        <v>1.68750358464186</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4000489196735089</v>
+        <v>0.2384600277685109</v>
       </c>
       <c r="D8">
-        <v>0.1739817801922712</v>
+        <v>0.1048539937126165</v>
       </c>
       <c r="E8">
-        <v>0.1700068171651754</v>
+        <v>0.07108277272901375</v>
       </c>
       <c r="F8">
-        <v>1.61232739341969</v>
+        <v>0.729949902650489</v>
       </c>
       <c r="G8">
-        <v>0.961573210446673</v>
+        <v>0.4683786673498531</v>
       </c>
       <c r="H8">
-        <v>1.004487339829325</v>
+        <v>0.3791171263635107</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2096051976362965</v>
+        <v>0.0737826514668356</v>
       </c>
       <c r="K8">
-        <v>1.032680552541109</v>
+        <v>2.350830324659057</v>
       </c>
       <c r="L8">
-        <v>0.1540125422344865</v>
+        <v>0.05133086380173957</v>
       </c>
       <c r="M8">
-        <v>0.4093370463137731</v>
+        <v>0.5479799341566292</v>
       </c>
       <c r="N8">
-        <v>1.502111883090066</v>
+        <v>0.9681749527818155</v>
       </c>
       <c r="O8">
-        <v>3.97819749065593</v>
+        <v>1.734124962795164</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4071291033789493</v>
+        <v>0.2852369756795383</v>
       </c>
       <c r="D9">
-        <v>0.1785365826701906</v>
+        <v>0.127524449569222</v>
       </c>
       <c r="E9">
-        <v>0.1697115572677603</v>
+        <v>0.07768043834764171</v>
       </c>
       <c r="F9">
-        <v>1.602285068398331</v>
+        <v>0.7974232697327039</v>
       </c>
       <c r="G9">
-        <v>0.9547241355235485</v>
+        <v>0.5170559540578807</v>
       </c>
       <c r="H9">
-        <v>0.9913682619111626</v>
+        <v>0.3870823842549527</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2067711757217836</v>
+        <v>0.07335318865694163</v>
       </c>
       <c r="K9">
-        <v>1.273390450161855</v>
+        <v>3.148702512042519</v>
       </c>
       <c r="L9">
-        <v>0.1524994876245795</v>
+        <v>0.05081393679101254</v>
       </c>
       <c r="M9">
-        <v>0.4587248717699737</v>
+        <v>0.7250513889123269</v>
       </c>
       <c r="N9">
-        <v>1.490299839073856</v>
+        <v>0.9574683213361794</v>
       </c>
       <c r="O9">
-        <v>3.936904876889116</v>
+        <v>1.854928098239441</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4131652486892676</v>
+        <v>0.3212340994758733</v>
       </c>
       <c r="D10">
-        <v>0.1821523669209881</v>
+        <v>0.1446162684821246</v>
       </c>
       <c r="E10">
-        <v>0.1697712970873297</v>
+        <v>0.08297423997137443</v>
       </c>
       <c r="F10">
-        <v>1.598678189074903</v>
+        <v>0.85469549225067</v>
       </c>
       <c r="G10">
-        <v>0.9523830824091988</v>
+        <v>0.5590093666495761</v>
       </c>
       <c r="H10">
-        <v>0.9836895480214594</v>
+        <v>0.3965236384810851</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.205028848281561</v>
+        <v>0.07359212942808568</v>
       </c>
       <c r="K10">
-        <v>1.45030296549885</v>
+        <v>3.737112411537225</v>
       </c>
       <c r="L10">
-        <v>0.1515550524176454</v>
+        <v>0.05065592340079661</v>
       </c>
       <c r="M10">
-        <v>0.4954690453362716</v>
+        <v>0.856335487067085</v>
       </c>
       <c r="N10">
-        <v>1.483975223169551</v>
+        <v>0.9548050732770719</v>
       </c>
       <c r="O10">
-        <v>3.916323648605186</v>
+        <v>1.964268612618667</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4160914717812716</v>
+        <v>0.3380210228727663</v>
       </c>
       <c r="D11">
-        <v>0.1838550787617237</v>
+        <v>0.1525017775842912</v>
       </c>
       <c r="E11">
-        <v>0.1698582013612793</v>
+        <v>0.08549065370658582</v>
       </c>
       <c r="F11">
-        <v>1.597855302112819</v>
+        <v>0.8826574096075319</v>
       </c>
       <c r="G11">
-        <v>0.9519032142055295</v>
+        <v>0.5796460129925123</v>
       </c>
       <c r="H11">
-        <v>0.980620955855187</v>
+        <v>0.4016905546233858</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2043097514864662</v>
+        <v>0.07383285187945532</v>
       </c>
       <c r="K11">
-        <v>1.530783641509231</v>
+        <v>4.005617936185388</v>
       </c>
       <c r="L11">
-        <v>0.1511614771022742</v>
+        <v>0.05063501406324633</v>
       </c>
       <c r="M11">
-        <v>0.5122810717597019</v>
+        <v>0.9164102798891491</v>
       </c>
       <c r="N11">
-        <v>1.481606259518983</v>
+        <v>0.9548305185535924</v>
       </c>
       <c r="O11">
-        <v>3.909079161049249</v>
+        <v>2.019112905862556</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4172253904036154</v>
+        <v>0.3444419811450246</v>
       </c>
       <c r="D12">
-        <v>0.184508105451016</v>
+        <v>0.1555050136277316</v>
       </c>
       <c r="E12">
-        <v>0.1698996671546027</v>
+        <v>0.08646010048736485</v>
       </c>
       <c r="F12">
-        <v>1.597661206403515</v>
+        <v>0.8935411847818528</v>
       </c>
       <c r="G12">
-        <v>0.95180568219007</v>
+        <v>0.587702110358677</v>
       </c>
       <c r="H12">
-        <v>0.9795199258311129</v>
+        <v>0.4037807734799941</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.204047996723844</v>
+        <v>0.07394402799480559</v>
       </c>
       <c r="K12">
-        <v>1.561258255345763</v>
+        <v>4.107443656550402</v>
       </c>
       <c r="L12">
-        <v>0.151017606144638</v>
+        <v>0.05063467613463857</v>
       </c>
       <c r="M12">
-        <v>0.5186609069903625</v>
+        <v>0.9392177871312271</v>
       </c>
       <c r="N12">
-        <v>1.480782031359198</v>
+        <v>0.9550276096825598</v>
       </c>
       <c r="O12">
-        <v>3.90664037814463</v>
+        <v>2.040671324474374</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4169800341211669</v>
+        <v>0.3430561796007225</v>
       </c>
       <c r="D13">
-        <v>0.1843670988971695</v>
+        <v>0.1548574280371611</v>
       </c>
       <c r="E13">
-        <v>0.1698903566840642</v>
+        <v>0.0862505612225668</v>
       </c>
       <c r="F13">
-        <v>1.59769778351972</v>
+        <v>0.8911836945134866</v>
       </c>
       <c r="G13">
-        <v>0.951822942597957</v>
+        <v>0.5859560428899755</v>
       </c>
       <c r="H13">
-        <v>0.9797543412684746</v>
+        <v>0.4033245278896374</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.204103901282533</v>
+        <v>0.07391917665468739</v>
       </c>
       <c r="K13">
-        <v>1.554695108138105</v>
+        <v>4.085506583828021</v>
       </c>
       <c r="L13">
-        <v>0.1510483617729115</v>
+        <v>0.05063440763758109</v>
       </c>
       <c r="M13">
-        <v>0.5172863027156254</v>
+        <v>0.9343030518553803</v>
       </c>
       <c r="N13">
-        <v>1.480956307237449</v>
+        <v>0.9549766662602792</v>
       </c>
       <c r="O13">
-        <v>3.907152069197195</v>
+        <v>2.035992262646175</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.41618424309425</v>
+        <v>0.3385479646970566</v>
       </c>
       <c r="D14">
-        <v>0.1839086388174422</v>
+        <v>0.1527485038804031</v>
       </c>
       <c r="E14">
-        <v>0.1698614414634427</v>
+        <v>0.08557007349495649</v>
       </c>
       <c r="F14">
-        <v>1.597836979162622</v>
+        <v>0.883546784210651</v>
       </c>
       <c r="G14">
-        <v>0.9518935027462589</v>
+        <v>0.5803038448894711</v>
       </c>
       <c r="H14">
-        <v>0.9805291516939008</v>
+        <v>0.4018597912021278</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.204288005392808</v>
+        <v>0.07384159101540533</v>
       </c>
       <c r="K14">
-        <v>1.533290851272227</v>
+        <v>4.01399205224061</v>
       </c>
       <c r="L14">
-        <v>0.1511495372844891</v>
+        <v>0.05063483285764647</v>
       </c>
       <c r="M14">
-        <v>0.5128056769506628</v>
+        <v>0.9182854487334495</v>
       </c>
       <c r="N14">
-        <v>1.481536991065568</v>
+        <v>0.954842919386266</v>
       </c>
       <c r="O14">
-        <v>3.908872417453381</v>
+        <v>2.020870361534151</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4157001574801882</v>
+        <v>0.3357950539950707</v>
       </c>
       <c r="D15">
-        <v>0.183628890501808</v>
+        <v>0.1514590022467956</v>
       </c>
       <c r="E15">
-        <v>0.1698448434903383</v>
+        <v>0.08515543841165396</v>
       </c>
       <c r="F15">
-        <v>1.597937541312803</v>
+        <v>0.8789080399213987</v>
       </c>
       <c r="G15">
-        <v>0.9519476875021411</v>
+        <v>0.5768737176166354</v>
       </c>
       <c r="H15">
-        <v>0.9810116849022847</v>
+        <v>0.4009802522660522</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2044021480975182</v>
+        <v>0.07379670657698156</v>
       </c>
       <c r="K15">
-        <v>1.520179848935754</v>
+        <v>3.970207559127346</v>
       </c>
       <c r="L15">
-        <v>0.151212182664402</v>
+        <v>0.05063608815174447</v>
       </c>
       <c r="M15">
-        <v>0.5100629071593232</v>
+        <v>0.9084820603028163</v>
       </c>
       <c r="N15">
-        <v>1.48190215699239</v>
+        <v>0.9547857027135791</v>
       </c>
       <c r="O15">
-        <v>3.909965840848145</v>
+        <v>2.011712377434549</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4129776326037131</v>
+        <v>0.3201457313845708</v>
       </c>
       <c r="D16">
-        <v>0.1820422488054021</v>
+        <v>0.1441032613855242</v>
       </c>
       <c r="E16">
-        <v>0.1697668168530768</v>
+        <v>0.08281204603574466</v>
       </c>
       <c r="F16">
-        <v>1.598748416436706</v>
+        <v>0.8529082633961451</v>
       </c>
       <c r="G16">
-        <v>0.9524262205775642</v>
+        <v>0.5576934768728137</v>
       </c>
       <c r="H16">
-        <v>0.9838986242849757</v>
+        <v>0.3962042065667362</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2050773204213563</v>
+        <v>0.07357914129058329</v>
       </c>
       <c r="K16">
-        <v>1.445043238961148</v>
+        <v>3.719584125611902</v>
       </c>
       <c r="L16">
-        <v>0.151581497521331</v>
+        <v>0.05065833660097496</v>
       </c>
       <c r="M16">
-        <v>0.4943722515355233</v>
+        <v>0.8524172086484683</v>
       </c>
       <c r="N16">
-        <v>1.484140246380051</v>
+        <v>0.9548291064245404</v>
       </c>
       <c r="O16">
-        <v>3.916839711045128</v>
+        <v>1.960791834893143</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4113535636573715</v>
+        <v>0.3106542142447779</v>
       </c>
       <c r="D17">
-        <v>0.1810836645716449</v>
+        <v>0.1396199126339752</v>
       </c>
       <c r="E17">
-        <v>0.1697342252279768</v>
+        <v>0.08140284453200408</v>
       </c>
       <c r="F17">
-        <v>1.599455275423367</v>
+        <v>0.8374614082697889</v>
       </c>
       <c r="G17">
-        <v>0.9528696751889782</v>
+        <v>0.5463371261039782</v>
       </c>
       <c r="H17">
-        <v>0.9857783464976393</v>
+        <v>0.3935032891090771</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2055103288025926</v>
+        <v>0.07348020266512023</v>
       </c>
       <c r="K17">
-        <v>1.398948523282172</v>
+        <v>3.566068151945331</v>
       </c>
       <c r="L17">
-        <v>0.1518172822023676</v>
+        <v>0.05068521363822853</v>
       </c>
       <c r="M17">
-        <v>0.4847710443498414</v>
+        <v>0.818118966637627</v>
       </c>
       <c r="N17">
-        <v>1.485643227626127</v>
+        <v>0.955179176075788</v>
       </c>
       <c r="O17">
-        <v>3.921599068011915</v>
+        <v>1.930899893581966</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4104364243280259</v>
+        <v>0.3052333783508629</v>
       </c>
       <c r="D18">
-        <v>0.180537764102553</v>
+        <v>0.1370515136009516</v>
       </c>
       <c r="E18">
-        <v>0.1697211031996595</v>
+        <v>0.08060243515500431</v>
       </c>
       <c r="F18">
-        <v>1.59993883264751</v>
+        <v>0.8287551016997128</v>
       </c>
       <c r="G18">
-        <v>0.9531798069984063</v>
+        <v>0.539950154764739</v>
       </c>
       <c r="H18">
-        <v>0.986899472018024</v>
+        <v>0.3920313502576676</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2057663026457739</v>
+        <v>0.07343565705360788</v>
       </c>
       <c r="K18">
-        <v>1.372436396386206</v>
+        <v>3.477846577232469</v>
       </c>
       <c r="L18">
-        <v>0.1519562937980083</v>
+        <v>0.05070545441832586</v>
       </c>
       <c r="M18">
-        <v>0.4792578331651143</v>
+        <v>0.7984242547606115</v>
       </c>
       <c r="N18">
-        <v>1.486555543789294</v>
+        <v>0.955496346999027</v>
       </c>
       <c r="O18">
-        <v>3.924535883277372</v>
+        <v>1.914183757432284</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4101288168455994</v>
+        <v>0.3034044327059746</v>
       </c>
       <c r="D19">
-        <v>0.1803538702418734</v>
+        <v>0.1361836295345569</v>
       </c>
       <c r="E19">
-        <v>0.1697176271724636</v>
+        <v>0.08033314085783871</v>
       </c>
       <c r="F19">
-        <v>1.600115783053965</v>
+        <v>0.8258373109138262</v>
       </c>
       <c r="G19">
-        <v>0.9532942688664576</v>
+        <v>0.5378119847858756</v>
       </c>
       <c r="H19">
-        <v>0.9872859307648554</v>
+        <v>0.3915467428595321</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2058541598383563</v>
+        <v>0.07342266728766589</v>
       </c>
       <c r="K19">
-        <v>1.363459964212154</v>
+        <v>3.447988619578609</v>
       </c>
       <c r="L19">
-        <v>0.1520039442581389</v>
+        <v>0.05071312150504959</v>
       </c>
       <c r="M19">
-        <v>0.47739273973324</v>
+        <v>0.7917613590067774</v>
       </c>
       <c r="N19">
-        <v>1.486872661985359</v>
+        <v>0.9556233458415875</v>
       </c>
       <c r="O19">
-        <v>3.92556447919759</v>
+        <v>1.908604224448737</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4115246917957336</v>
+        <v>0.3116605900720515</v>
       </c>
       <c r="D20">
-        <v>0.1811851438035177</v>
+        <v>0.140096097159784</v>
       </c>
       <c r="E20">
-        <v>0.169737112849532</v>
+        <v>0.08155180159046438</v>
       </c>
       <c r="F20">
-        <v>1.599372061553936</v>
+        <v>0.839087151215935</v>
       </c>
       <c r="G20">
-        <v>0.9528167689555858</v>
+        <v>0.5475309035684006</v>
       </c>
       <c r="H20">
-        <v>0.9855741117028032</v>
+        <v>0.3937823076651767</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2054635183683757</v>
+        <v>0.07348944822419057</v>
       </c>
       <c r="K20">
-        <v>1.403855364346896</v>
+        <v>3.582402046782647</v>
       </c>
       <c r="L20">
-        <v>0.1517918313268627</v>
+        <v>0.05068185586778995</v>
       </c>
       <c r="M20">
-        <v>0.4857921656014312</v>
+        <v>0.821766631508865</v>
       </c>
       <c r="N20">
-        <v>1.485478282958255</v>
+        <v>0.9551298561700179</v>
       </c>
       <c r="O20">
-        <v>3.921071793572338</v>
+        <v>1.934032188448583</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.416417286321149</v>
+        <v>0.3398703558382863</v>
       </c>
       <c r="D21">
-        <v>0.1840430764441976</v>
+        <v>0.1533674694189529</v>
       </c>
       <c r="E21">
-        <v>0.1698697025826341</v>
+        <v>0.0857694924165493</v>
       </c>
       <c r="F21">
-        <v>1.597792905533396</v>
+        <v>0.8857817458681723</v>
       </c>
       <c r="G21">
-        <v>0.9518704924162051</v>
+        <v>0.5819573278081975</v>
       </c>
       <c r="H21">
-        <v>0.9802999166264783</v>
+        <v>0.4022863252257736</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2042336433217997</v>
+        <v>0.07386382789062651</v>
       </c>
       <c r="K21">
-        <v>1.539577861644204</v>
+        <v>4.034993335400145</v>
       </c>
       <c r="L21">
-        <v>0.1511196794749416</v>
+        <v>0.05063450016856663</v>
       </c>
       <c r="M21">
-        <v>0.5141213829419158</v>
+        <v>0.9229885552450341</v>
       </c>
       <c r="N21">
-        <v>1.481364454849597</v>
+        <v>0.9548770371644366</v>
       </c>
       <c r="O21">
-        <v>3.908358844313284</v>
+        <v>2.025290123120527</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4197653344322703</v>
+        <v>0.3586832958131652</v>
       </c>
       <c r="D22">
-        <v>0.1859589335750655</v>
+        <v>0.1621417928865014</v>
       </c>
       <c r="E22">
-        <v>0.1700062198372052</v>
+        <v>0.08862287517526823</v>
       </c>
       <c r="F22">
-        <v>1.597445749306104</v>
+        <v>0.9180306739517761</v>
       </c>
       <c r="G22">
-        <v>0.9517427548083504</v>
+        <v>0.6058737047497544</v>
       </c>
       <c r="H22">
-        <v>0.9772083301960208</v>
+        <v>0.4086272479519835</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2034913437330452</v>
+        <v>0.07422572628452784</v>
       </c>
       <c r="K22">
-        <v>1.628269691411106</v>
+        <v>4.331668358183265</v>
       </c>
       <c r="L22">
-        <v>0.1507105015910675</v>
+        <v>0.05064786009017297</v>
       </c>
       <c r="M22">
-        <v>0.5327145603477774</v>
+        <v>0.9894878532997922</v>
       </c>
       <c r="N22">
-        <v>1.479100338716549</v>
+        <v>0.9558093366485281</v>
       </c>
       <c r="O22">
-        <v>3.901825321504845</v>
+        <v>2.08956634251237</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4179646887950526</v>
+        <v>0.3486063405374011</v>
       </c>
       <c r="D23">
-        <v>0.1849320344600329</v>
+        <v>0.1574491049465934</v>
       </c>
       <c r="E23">
-        <v>0.169928806114676</v>
+        <v>0.08709076935744875</v>
       </c>
       <c r="F23">
-        <v>1.597568396423071</v>
+        <v>0.9006531768025638</v>
       </c>
       <c r="G23">
-        <v>0.951766015015437</v>
+        <v>0.5929730883257207</v>
       </c>
       <c r="H23">
-        <v>0.9788258690002039</v>
+        <v>0.405168467063433</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2038819018467812</v>
+        <v>0.07402148914482609</v>
       </c>
       <c r="K23">
-        <v>1.580934828598117</v>
+        <v>4.173236759087558</v>
       </c>
       <c r="L23">
-        <v>0.1509261378195106</v>
+        <v>0.05063658845376295</v>
       </c>
       <c r="M23">
-        <v>0.5227840071784655</v>
+        <v>0.9539616590723412</v>
       </c>
       <c r="N23">
-        <v>1.480269969680194</v>
+        <v>0.9552079978891896</v>
       </c>
       <c r="O23">
-        <v>3.905149968718575</v>
+        <v>2.05481742051262</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4114472731768331</v>
+        <v>0.3112054959092347</v>
       </c>
       <c r="D24">
-        <v>0.1811392488325794</v>
+        <v>0.1398807857701598</v>
       </c>
       <c r="E24">
-        <v>0.1697357898624716</v>
+        <v>0.08148442777887155</v>
       </c>
       <c r="F24">
-        <v>1.599409442142999</v>
+        <v>0.8383516114904097</v>
       </c>
       <c r="G24">
-        <v>0.9528405159730511</v>
+        <v>0.5469907560159868</v>
       </c>
       <c r="H24">
-        <v>0.9856663202542393</v>
+        <v>0.3936559121472953</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2054846594616677</v>
+        <v>0.07348522996201012</v>
       </c>
       <c r="K24">
-        <v>1.401637017670566</v>
+        <v>3.575017380414977</v>
       </c>
       <c r="L24">
-        <v>0.1518033269020247</v>
+        <v>0.05068335901842858</v>
       </c>
       <c r="M24">
-        <v>0.4853304959329279</v>
+        <v>0.8201174486524394</v>
       </c>
       <c r="N24">
-        <v>1.4855527041844</v>
+        <v>0.9551517933793008</v>
       </c>
       <c r="O24">
-        <v>3.921309549493685</v>
+        <v>1.932614620868407</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4050668646405171</v>
+        <v>0.2723145966043177</v>
       </c>
       <c r="D25">
-        <v>0.1772568371433323</v>
+        <v>0.1213198694111952</v>
       </c>
       <c r="E25">
-        <v>0.1697427248665271</v>
+        <v>0.07582077727514402</v>
       </c>
       <c r="F25">
-        <v>1.604339164816153</v>
+        <v>0.7778935272313348</v>
       </c>
       <c r="G25">
-        <v>0.9561046766976347</v>
+        <v>0.502866900365845</v>
       </c>
       <c r="H25">
-        <v>0.9945728226670951</v>
+        <v>0.3843270083652186</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2074780874394762</v>
+        <v>0.07337574131442182</v>
       </c>
       <c r="K25">
-        <v>1.208255504161656</v>
+        <v>2.932576521258312</v>
       </c>
       <c r="L25">
-        <v>0.1528793656857186</v>
+        <v>0.0509157413190664</v>
       </c>
       <c r="M25">
-        <v>0.4452822906787119</v>
+        <v>0.6769691459485188</v>
       </c>
       <c r="N25">
-        <v>1.493080985098146</v>
+        <v>0.9594855321106621</v>
       </c>
       <c r="O25">
-        <v>3.946362165642228</v>
+        <v>1.818835781900333</v>
       </c>
     </row>
   </sheetData>
